--- a/Document/Data/Server/DBConfig.xlsx
+++ b/Document/Data/Server/DBConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099449E6-438E-46F5-AE87-25CDFFA45D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB8DCD8-1DA9-4A96-B342-FA271220B7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,10 +467,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
